--- a/biology/Biochimie/Polycétide_synthase/Polycétide_synthase.xlsx
+++ b/biology/Biochimie/Polycétide_synthase/Polycétide_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polyc%C3%A9tide_synthase</t>
+          <t>Polycétide_synthase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Une polycétide synthase est une enzyme multifonctionnelle ou un complexe enzymatique produisant des polycétides, une grande famille de métabolites secondaires chez les bactéries, les mycètes, les plantes et certaines lignées d'animaux. La biosynthèse des polycétides présente des ressemblances frappantes avec la biosynthèse des acides gras réalisée par l'acide gras synthase[1],[2]. Les gènes codant les polycétide synthases sont organisés en opéron chez les bactéries et en clusters de gènes chez les eucaryotes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Une polycétide synthase est une enzyme multifonctionnelle ou un complexe enzymatique produisant des polycétides, une grande famille de métabolites secondaires chez les bactéries, les mycètes, les plantes et certaines lignées d'animaux. La biosynthèse des polycétides présente des ressemblances frappantes avec la biosynthèse des acides gras réalisée par l'acide gras synthase,. Les gènes codant les polycétide synthases sont organisés en opéron chez les bactéries et en clusters de gènes chez les eucaryotes.
 On distingue trois types de polycétides synthases :
 type I, constitué de grandes enzymes multifonctionnelles,
 type II, constitué de complexes d'enzymes plus petites étant chacune monofonctionnelle,
